--- a/biology/Botanique/Eriosema_griseum/Eriosema_griseum.xlsx
+++ b/biology/Botanique/Eriosema_griseum/Eriosema_griseum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriosema griseum est une espèce de plantes de la famille des Fabaceae et du genre Eriosema, présente en Afrique tropicale, du Sénégal au Nigeria, en République centrafricaine et en Ouganda, au sud de l'Angola, au sud de la République démocratique du Congo, en Tanzanie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriosema griseum est une espèce de plantes de la famille des Fabaceae et du genre Eriosema, présente en Afrique tropicale, du Sénégal au Nigeria, en République centrafricaine et en Ouganda, au sud de l'Angola, au sud de la République démocratique du Congo, en Tanzanie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (3 juin 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (3 juin 2020) :
 variété Eriosema griseum var. togense (Taub.) Jacq.-Fél.
-Selon Tropicos                                           (3 juin 2020)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Eriosema griseum var. griseum
 variété Eriosema griseum var. togense (Taub.) Jacq.-Fél.</t>
         </is>
